--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_37.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_37.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rei Nakamura</t>
+          <t>Ryohei Ishii</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
